--- a/www.eia.gov/electricity/monthly/xls/table_1_07_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_07_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 1.7.B. Utility Scale Facility Net Generation from Natural Gas</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1392,37 +1392,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>46772</v>
+        <v>50235</v>
       </c>
       <c r="C7" s="10">
-        <v>46100</v>
+        <v>50027</v>
       </c>
       <c r="D7" s="11">
-        <v>1.4999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E7" s="10">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F7" s="10">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="G7" s="10">
-        <v>44695</v>
+        <v>48002</v>
       </c>
       <c r="H7" s="10">
-        <v>44045</v>
+        <v>47780</v>
       </c>
       <c r="I7" s="10">
-        <v>806</v>
+        <v>880</v>
       </c>
       <c r="J7" s="10">
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="K7" s="10">
-        <v>997</v>
+        <v>1075</v>
       </c>
       <c r="L7" s="10">
-        <v>881</v>
+        <v>977</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,37 +1430,37 @@
         <v>17</v>
       </c>
       <c r="B8" s="13">
-        <v>14988</v>
+        <v>16425</v>
       </c>
       <c r="C8" s="13">
-        <v>14238</v>
+        <v>15699</v>
       </c>
       <c r="D8" s="14">
-        <v>5.2999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E8" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="13">
-        <v>14289</v>
+        <v>15662</v>
       </c>
       <c r="H8" s="13">
-        <v>13521</v>
+        <v>14908</v>
       </c>
       <c r="I8" s="13">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="J8" s="13">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="K8" s="13">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="L8" s="13">
-        <v>395</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1468,13 +1468,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="13">
-        <v>3351</v>
+        <v>3545</v>
       </c>
       <c r="C9" s="13">
-        <v>2411</v>
+        <v>2708</v>
       </c>
       <c r="D9" s="14">
-        <v>0.39</v>
+        <v>0.309</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>2887</v>
+        <v>3047</v>
       </c>
       <c r="H9" s="13">
-        <v>2062</v>
+        <v>2314</v>
       </c>
       <c r="I9" s="13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J9" s="13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K9" s="13">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="L9" s="13">
-        <v>327</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1506,37 +1506,37 @@
         <v>19</v>
       </c>
       <c r="B10" s="13">
-        <v>18943</v>
+        <v>19929</v>
       </c>
       <c r="C10" s="13">
-        <v>18643</v>
+        <v>19773</v>
       </c>
       <c r="D10" s="14">
-        <v>1.6E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E10" s="13">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F10" s="13">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="G10" s="13">
-        <v>18152</v>
+        <v>19087</v>
       </c>
       <c r="H10" s="13">
-        <v>17765</v>
+        <v>18831</v>
       </c>
       <c r="I10" s="13">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="J10" s="13">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="K10" s="13">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="L10" s="13">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1544,37 +1544,37 @@
         <v>20</v>
       </c>
       <c r="B11" s="13">
-        <v>4001</v>
+        <v>4436</v>
       </c>
       <c r="C11" s="13">
-        <v>5140</v>
+        <v>5675</v>
       </c>
       <c r="D11" s="14">
-        <v>-0.222</v>
+        <v>-0.218</v>
       </c>
       <c r="E11" s="13">
         <v>36</v>
       </c>
       <c r="F11" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="13">
-        <v>3923</v>
+        <v>4354</v>
       </c>
       <c r="H11" s="13">
-        <v>5074</v>
+        <v>5602</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11" s="13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L11" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="13">
-        <v>5488</v>
+        <v>5898</v>
       </c>
       <c r="C12" s="13">
-        <v>5666</v>
+        <v>6172</v>
       </c>
       <c r="D12" s="14">
-        <v>-3.1E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1597,16 +1597,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>5445</v>
+        <v>5851</v>
       </c>
       <c r="H12" s="13">
-        <v>5623</v>
+        <v>6125</v>
       </c>
       <c r="I12" s="13">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J12" s="13">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K12" s="13">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="13">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="K13" s="13">
         <v>0</v>
@@ -1658,37 +1658,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>143919</v>
+        <v>155828</v>
       </c>
       <c r="C14" s="10">
-        <v>129692</v>
+        <v>141587</v>
       </c>
       <c r="D14" s="11">
-        <v>0.11</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E14" s="10">
-        <v>10468</v>
+        <v>11167</v>
       </c>
       <c r="F14" s="10">
-        <v>10324</v>
+        <v>11179</v>
       </c>
       <c r="G14" s="10">
-        <v>130921</v>
+        <v>141895</v>
       </c>
       <c r="H14" s="10">
-        <v>116937</v>
+        <v>127741</v>
       </c>
       <c r="I14" s="10">
-        <v>954</v>
+        <v>1037</v>
       </c>
       <c r="J14" s="10">
-        <v>909</v>
+        <v>997</v>
       </c>
       <c r="K14" s="10">
-        <v>1575</v>
+        <v>1729</v>
       </c>
       <c r="L14" s="10">
-        <v>1522</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1696,37 +1696,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>37899</v>
+        <v>40676</v>
       </c>
       <c r="C15" s="13">
-        <v>30837</v>
+        <v>34021</v>
       </c>
       <c r="D15" s="14">
-        <v>0.22900000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="13">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G15" s="13">
-        <v>37369</v>
+        <v>40099</v>
       </c>
       <c r="H15" s="13">
-        <v>30316</v>
+        <v>33446</v>
       </c>
       <c r="I15" s="13">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J15" s="13">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K15" s="13">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="L15" s="13">
-        <v>286</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1734,37 +1734,37 @@
         <v>26</v>
       </c>
       <c r="B16" s="13">
-        <v>49082</v>
+        <v>52751</v>
       </c>
       <c r="C16" s="13">
-        <v>49216</v>
+        <v>53134</v>
       </c>
       <c r="D16" s="14">
-        <v>-3.0000000000000001E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E16" s="13">
-        <v>10386</v>
+        <v>11078</v>
       </c>
       <c r="F16" s="13">
-        <v>10258</v>
+        <v>11105</v>
       </c>
       <c r="G16" s="13">
-        <v>37740</v>
+        <v>40629</v>
       </c>
       <c r="H16" s="13">
-        <v>38087</v>
+        <v>41076</v>
       </c>
       <c r="I16" s="13">
-        <v>666</v>
+        <v>725</v>
       </c>
       <c r="J16" s="13">
-        <v>634</v>
+        <v>695</v>
       </c>
       <c r="K16" s="13">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="L16" s="13">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,37 +1772,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>56938</v>
+        <v>62401</v>
       </c>
       <c r="C17" s="13">
-        <v>49639</v>
+        <v>54432</v>
       </c>
       <c r="D17" s="14">
-        <v>0.14699999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="13">
-        <v>55812</v>
+        <v>61167</v>
       </c>
       <c r="H17" s="13">
-        <v>48534</v>
+        <v>53219</v>
       </c>
       <c r="I17" s="13">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J17" s="13">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K17" s="13">
-        <v>1004</v>
+        <v>1102</v>
       </c>
       <c r="L17" s="13">
-        <v>999</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,37 +1810,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>96133</v>
+        <v>104322</v>
       </c>
       <c r="C18" s="10">
-        <v>72889</v>
+        <v>80091</v>
       </c>
       <c r="D18" s="11">
-        <v>0.31900000000000001</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="E18" s="10">
-        <v>42087</v>
+        <v>45388</v>
       </c>
       <c r="F18" s="10">
-        <v>31991</v>
+        <v>35291</v>
       </c>
       <c r="G18" s="10">
-        <v>51090</v>
+        <v>55707</v>
       </c>
       <c r="H18" s="10">
-        <v>38484</v>
+        <v>42114</v>
       </c>
       <c r="I18" s="10">
-        <v>1242</v>
+        <v>1341</v>
       </c>
       <c r="J18" s="10">
-        <v>1110</v>
+        <v>1225</v>
       </c>
       <c r="K18" s="10">
-        <v>1714</v>
+        <v>1885</v>
       </c>
       <c r="L18" s="10">
-        <v>1304</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,37 +1848,37 @@
         <v>29</v>
       </c>
       <c r="B19" s="13">
-        <v>15412</v>
+        <v>16464</v>
       </c>
       <c r="C19" s="13">
-        <v>8855</v>
+        <v>9764</v>
       </c>
       <c r="D19" s="14">
-        <v>0.74099999999999999</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="E19" s="13">
-        <v>1614</v>
+        <v>1675</v>
       </c>
       <c r="F19" s="13">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="G19" s="13">
-        <v>13038</v>
+        <v>13973</v>
       </c>
       <c r="H19" s="13">
-        <v>7551</v>
+        <v>8344</v>
       </c>
       <c r="I19" s="13">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="J19" s="13">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="K19" s="13">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="L19" s="13">
-        <v>396</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1886,37 +1886,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="13">
-        <v>16590</v>
+        <v>18413</v>
       </c>
       <c r="C20" s="13">
-        <v>13091</v>
+        <v>14520</v>
       </c>
       <c r="D20" s="14">
-        <v>0.26700000000000002</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="E20" s="13">
-        <v>13236</v>
+        <v>14728</v>
       </c>
       <c r="F20" s="13">
-        <v>10621</v>
+        <v>11663</v>
       </c>
       <c r="G20" s="13">
-        <v>2747</v>
+        <v>3019</v>
       </c>
       <c r="H20" s="13">
-        <v>1891</v>
+        <v>2214</v>
       </c>
       <c r="I20" s="13">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J20" s="13">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K20" s="13">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="L20" s="13">
-        <v>441</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1924,37 +1924,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>25783</v>
+        <v>27929</v>
       </c>
       <c r="C21" s="13">
-        <v>16354</v>
+        <v>18044</v>
       </c>
       <c r="D21" s="14">
-        <v>0.57699999999999996</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="E21" s="13">
-        <v>9031</v>
+        <v>9578</v>
       </c>
       <c r="F21" s="13">
-        <v>5095</v>
+        <v>5733</v>
       </c>
       <c r="G21" s="13">
-        <v>15730</v>
+        <v>17231</v>
       </c>
       <c r="H21" s="13">
-        <v>10584</v>
+        <v>11562</v>
       </c>
       <c r="I21" s="13">
-        <v>554</v>
+        <v>607</v>
       </c>
       <c r="J21" s="13">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="K21" s="13">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="L21" s="13">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1962,37 +1962,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>24347</v>
+        <v>26648</v>
       </c>
       <c r="C22" s="13">
-        <v>23527</v>
+        <v>25695</v>
       </c>
       <c r="D22" s="14">
-        <v>3.5000000000000003E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E22" s="13">
-        <v>5701</v>
+        <v>6126</v>
       </c>
       <c r="F22" s="13">
-        <v>5582</v>
+        <v>6235</v>
       </c>
       <c r="G22" s="13">
-        <v>18471</v>
+        <v>20326</v>
       </c>
       <c r="H22" s="13">
-        <v>17785</v>
+        <v>19279</v>
       </c>
       <c r="I22" s="13">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J22" s="13">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K22" s="13">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="L22" s="13">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,37 +2000,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="13">
-        <v>14001</v>
+        <v>14867</v>
       </c>
       <c r="C23" s="13">
-        <v>11062</v>
+        <v>12068</v>
       </c>
       <c r="D23" s="14">
-        <v>0.26600000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="E23" s="13">
-        <v>12506</v>
+        <v>13281</v>
       </c>
       <c r="F23" s="13">
-        <v>10154</v>
+        <v>11091</v>
       </c>
       <c r="G23" s="13">
-        <v>1104</v>
+        <v>1158</v>
       </c>
       <c r="H23" s="13">
-        <v>673</v>
+        <v>714</v>
       </c>
       <c r="I23" s="13">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J23" s="13">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K23" s="13">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="L23" s="13">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,37 +2038,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="10">
-        <v>20585</v>
+        <v>21782</v>
       </c>
       <c r="C24" s="10">
-        <v>14953</v>
+        <v>15846</v>
       </c>
       <c r="D24" s="11">
-        <v>0.377</v>
+        <v>0.375</v>
       </c>
       <c r="E24" s="10">
-        <v>16944</v>
+        <v>17974</v>
       </c>
       <c r="F24" s="10">
-        <v>12522</v>
+        <v>13279</v>
       </c>
       <c r="G24" s="10">
-        <v>2873</v>
+        <v>2957</v>
       </c>
       <c r="H24" s="10">
-        <v>1943</v>
+        <v>2029</v>
       </c>
       <c r="I24" s="10">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="J24" s="10">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="K24" s="10">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="L24" s="10">
-        <v>291</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,19 +2076,19 @@
         <v>35</v>
       </c>
       <c r="B25" s="13">
-        <v>2849</v>
+        <v>2967</v>
       </c>
       <c r="C25" s="13">
-        <v>2067</v>
+        <v>2140</v>
       </c>
       <c r="D25" s="14">
-        <v>0.378</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="E25" s="13">
-        <v>2572</v>
+        <v>2646</v>
       </c>
       <c r="F25" s="13">
-        <v>1890</v>
+        <v>1938</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>21</v>
@@ -2097,16 +2097,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="13">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J25" s="13">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K25" s="13">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="L25" s="13">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2114,19 +2114,19 @@
         <v>36</v>
       </c>
       <c r="B26" s="13">
-        <v>1904</v>
+        <v>2037</v>
       </c>
       <c r="C26" s="13">
-        <v>1082</v>
+        <v>1129</v>
       </c>
       <c r="D26" s="14">
-        <v>0.75900000000000001</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="E26" s="13">
-        <v>1825</v>
+        <v>1951</v>
       </c>
       <c r="F26" s="13">
-        <v>1050</v>
+        <v>1095</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="K26" s="13">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L26" s="13">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2152,37 +2152,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="13">
-        <v>8154</v>
+        <v>8630</v>
       </c>
       <c r="C27" s="13">
-        <v>6118</v>
+        <v>6537</v>
       </c>
       <c r="D27" s="14">
-        <v>0.33300000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="E27" s="13">
-        <v>6541</v>
+        <v>6949</v>
       </c>
       <c r="F27" s="13">
-        <v>5225</v>
+        <v>5615</v>
       </c>
       <c r="G27" s="13">
-        <v>1350</v>
+        <v>1399</v>
       </c>
       <c r="H27" s="13">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="I27" s="13">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J27" s="13">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K27" s="13">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L27" s="13">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,37 +2190,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="13">
-        <v>5397</v>
+        <v>5666</v>
       </c>
       <c r="C28" s="13">
-        <v>3967</v>
+        <v>4239</v>
       </c>
       <c r="D28" s="14">
-        <v>0.36</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="E28" s="13">
-        <v>3766</v>
+        <v>3991</v>
       </c>
       <c r="F28" s="13">
-        <v>2660</v>
+        <v>2852</v>
       </c>
       <c r="G28" s="13">
-        <v>1522</v>
+        <v>1558</v>
       </c>
       <c r="H28" s="13">
-        <v>1221</v>
+        <v>1295</v>
       </c>
       <c r="I28" s="13">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J28" s="13">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>21</v>
       </c>
       <c r="L28" s="13">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2228,19 +2228,19 @@
         <v>39</v>
       </c>
       <c r="B29" s="13">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="C29" s="13">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="D29" s="14">
-        <v>0.52800000000000002</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="E29" s="13">
-        <v>601</v>
+        <v>676</v>
       </c>
       <c r="F29" s="13">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2255,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L29" s="13">
-        <v>0.16</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2266,19 +2266,19 @@
         <v>40</v>
       </c>
       <c r="B30" s="13">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="C30" s="13">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="D30" s="14">
-        <v>0.13800000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E30" s="13">
-        <v>751</v>
+        <v>801</v>
       </c>
       <c r="F30" s="13">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="G30" s="13">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>21</v>
       </c>
       <c r="L30" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2304,19 +2304,19 @@
         <v>41</v>
       </c>
       <c r="B31" s="13">
-        <v>887</v>
+        <v>960</v>
       </c>
       <c r="C31" s="13">
-        <v>633</v>
+        <v>690</v>
       </c>
       <c r="D31" s="14">
-        <v>0.40100000000000002</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="E31" s="13">
-        <v>887</v>
+        <v>960</v>
       </c>
       <c r="F31" s="13">
-        <v>633</v>
+        <v>690</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
@@ -2342,37 +2342,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="10">
-        <v>277172</v>
+        <v>299434</v>
       </c>
       <c r="C32" s="10">
-        <v>257003</v>
+        <v>280540</v>
       </c>
       <c r="D32" s="11">
-        <v>7.8E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E32" s="10">
-        <v>224333</v>
+        <v>243136</v>
       </c>
       <c r="F32" s="10">
-        <v>212098</v>
+        <v>231214</v>
       </c>
       <c r="G32" s="10">
-        <v>48964</v>
+        <v>52009</v>
       </c>
       <c r="H32" s="10">
-        <v>41357</v>
+        <v>45429</v>
       </c>
       <c r="I32" s="10">
-        <v>537</v>
+        <v>581</v>
       </c>
       <c r="J32" s="10">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="K32" s="10">
-        <v>3338</v>
+        <v>3709</v>
       </c>
       <c r="L32" s="10">
-        <v>3091</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,25 +2380,25 @@
         <v>43</v>
       </c>
       <c r="B33" s="13">
-        <v>6930</v>
+        <v>7460</v>
       </c>
       <c r="C33" s="13">
-        <v>5939</v>
+        <v>6303</v>
       </c>
       <c r="D33" s="14">
-        <v>0.16700000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G33" s="13">
-        <v>6042</v>
+        <v>6485</v>
       </c>
       <c r="H33" s="13">
-        <v>5100</v>
+        <v>5397</v>
       </c>
       <c r="I33" s="13">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="13">
-        <v>842</v>
+        <v>925</v>
       </c>
       <c r="L33" s="13">
-        <v>805</v>
+        <v>870</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2418,13 +2418,13 @@
         <v>44</v>
       </c>
       <c r="B34" s="13">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C34" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D34" s="14">
-        <v>1.425</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="E34" s="13">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="13">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J34" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K34" s="13">
         <v>0</v>
@@ -2456,37 +2456,37 @@
         <v>45</v>
       </c>
       <c r="B35" s="13">
-        <v>137120</v>
+        <v>147527</v>
       </c>
       <c r="C35" s="13">
-        <v>131575</v>
+        <v>143731</v>
       </c>
       <c r="D35" s="14">
-        <v>4.2000000000000003E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E35" s="13">
-        <v>125209</v>
+        <v>134835</v>
       </c>
       <c r="F35" s="13">
-        <v>123379</v>
+        <v>134413</v>
       </c>
       <c r="G35" s="13">
-        <v>10734</v>
+        <v>11393</v>
       </c>
       <c r="H35" s="13">
-        <v>7018</v>
+        <v>8021</v>
       </c>
       <c r="I35" s="13">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J35" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K35" s="13">
-        <v>1132</v>
+        <v>1248</v>
       </c>
       <c r="L35" s="13">
-        <v>1150</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2494,25 +2494,25 @@
         <v>46</v>
       </c>
       <c r="B36" s="13">
-        <v>45631</v>
+        <v>49140</v>
       </c>
       <c r="C36" s="13">
-        <v>42398</v>
+        <v>46377</v>
       </c>
       <c r="D36" s="14">
-        <v>7.5999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E36" s="13">
-        <v>35017</v>
+        <v>38009</v>
       </c>
       <c r="F36" s="13">
-        <v>31242</v>
+        <v>34188</v>
       </c>
       <c r="G36" s="13">
-        <v>10156</v>
+        <v>10623</v>
       </c>
       <c r="H36" s="13">
-        <v>10667</v>
+        <v>11650</v>
       </c>
       <c r="I36" s="13">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="L36" s="13">
-        <v>488</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="B37" s="13">
-        <v>5271</v>
+        <v>5367</v>
       </c>
       <c r="C37" s="13">
-        <v>3885</v>
+        <v>4258</v>
       </c>
       <c r="D37" s="14">
-        <v>0.35699999999999998</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,22 +2547,22 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>4779</v>
+        <v>4836</v>
       </c>
       <c r="H37" s="13">
-        <v>3440</v>
+        <v>3770</v>
       </c>
       <c r="I37" s="13">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="J37" s="13">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="K37" s="13">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L37" s="13">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2570,37 +2570,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="13">
-        <v>33293</v>
+        <v>36263</v>
       </c>
       <c r="C38" s="13">
-        <v>30668</v>
+        <v>33407</v>
       </c>
       <c r="D38" s="14">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="E38" s="13">
-        <v>28631</v>
+        <v>31374</v>
       </c>
       <c r="F38" s="13">
-        <v>27144</v>
+        <v>29749</v>
       </c>
       <c r="G38" s="13">
-        <v>4488</v>
+        <v>4699</v>
       </c>
       <c r="H38" s="13">
-        <v>3374</v>
+        <v>3492</v>
       </c>
       <c r="I38" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J38" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K38" s="13">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L38" s="13">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2608,25 +2608,25 @@
         <v>49</v>
       </c>
       <c r="B39" s="13">
-        <v>13632</v>
+        <v>15194</v>
       </c>
       <c r="C39" s="13">
-        <v>13499</v>
+        <v>15147</v>
       </c>
       <c r="D39" s="14">
-        <v>0.01</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E39" s="13">
-        <v>11204</v>
+        <v>12267</v>
       </c>
       <c r="F39" s="13">
-        <v>11902</v>
+        <v>13350</v>
       </c>
       <c r="G39" s="13">
-        <v>2346</v>
+        <v>2839</v>
       </c>
       <c r="H39" s="13">
-        <v>1564</v>
+        <v>1762</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>21</v>
@@ -2635,10 +2635,10 @@
         <v>1</v>
       </c>
       <c r="K39" s="13">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L39" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2646,37 +2646,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="13">
-        <v>34156</v>
+        <v>37261</v>
       </c>
       <c r="C40" s="13">
-        <v>27846</v>
+        <v>30044</v>
       </c>
       <c r="D40" s="14">
-        <v>0.22700000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="E40" s="13">
-        <v>24097</v>
+        <v>26463</v>
       </c>
       <c r="F40" s="13">
-        <v>18284</v>
+        <v>19360</v>
       </c>
       <c r="G40" s="13">
-        <v>9610</v>
+        <v>10302</v>
       </c>
       <c r="H40" s="13">
-        <v>9132</v>
+        <v>10204</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J40" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K40" s="13">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="L40" s="13">
-        <v>425</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2684,25 +2684,25 @@
         <v>51</v>
       </c>
       <c r="B41" s="13">
-        <v>1093</v>
+        <v>1171</v>
       </c>
       <c r="C41" s="13">
-        <v>1175</v>
+        <v>1252</v>
       </c>
       <c r="D41" s="14">
-        <v>-7.0000000000000007E-2</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F41" s="13">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G41" s="13">
-        <v>809</v>
+        <v>832</v>
       </c>
       <c r="H41" s="13">
-        <v>1061</v>
+        <v>1135</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="L41" s="13">
         <v>0.01</v>
@@ -2722,37 +2722,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="10">
-        <v>109261</v>
+        <v>117497</v>
       </c>
       <c r="C42" s="10">
-        <v>97362</v>
+        <v>106605</v>
       </c>
       <c r="D42" s="11">
-        <v>0.122</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E42" s="10">
-        <v>69953</v>
+        <v>74965</v>
       </c>
       <c r="F42" s="10">
-        <v>58492</v>
+        <v>64269</v>
       </c>
       <c r="G42" s="10">
-        <v>37485</v>
+        <v>40525</v>
       </c>
       <c r="H42" s="10">
-        <v>37158</v>
+        <v>40455</v>
       </c>
       <c r="I42" s="10">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J42" s="10">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K42" s="10">
-        <v>1694</v>
+        <v>1866</v>
       </c>
       <c r="L42" s="10">
-        <v>1586</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="B43" s="13">
-        <v>48995</v>
+        <v>53307</v>
       </c>
       <c r="C43" s="13">
-        <v>46759</v>
+        <v>51152</v>
       </c>
       <c r="D43" s="14">
-        <v>4.8000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E43" s="13">
-        <v>14219</v>
+        <v>15432</v>
       </c>
       <c r="F43" s="13">
-        <v>12144</v>
+        <v>13518</v>
       </c>
       <c r="G43" s="13">
-        <v>33911</v>
+        <v>36932</v>
       </c>
       <c r="H43" s="13">
-        <v>33761</v>
+        <v>36702</v>
       </c>
       <c r="I43" s="13">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="13">
-        <v>866</v>
+        <v>942</v>
       </c>
       <c r="L43" s="13">
-        <v>854</v>
+        <v>932</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2798,22 +2798,22 @@
         <v>54</v>
       </c>
       <c r="B44" s="13">
-        <v>7108</v>
+        <v>7587</v>
       </c>
       <c r="C44" s="13">
-        <v>4814</v>
+        <v>5449</v>
       </c>
       <c r="D44" s="14">
-        <v>0.47699999999999998</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="E44" s="13">
-        <v>6439</v>
+        <v>6881</v>
       </c>
       <c r="F44" s="13">
-        <v>4043</v>
+        <v>4654</v>
       </c>
       <c r="G44" s="13">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="H44" s="13">
         <v>574</v>
@@ -2825,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="13">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="L44" s="13">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2836,37 +2836,37 @@
         <v>55</v>
       </c>
       <c r="B45" s="13">
-        <v>43431</v>
+        <v>46349</v>
       </c>
       <c r="C45" s="13">
-        <v>38039</v>
+        <v>41534</v>
       </c>
       <c r="D45" s="14">
-        <v>0.14199999999999999</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="E45" s="13">
-        <v>39980</v>
+        <v>42862</v>
       </c>
       <c r="F45" s="13">
-        <v>34867</v>
+        <v>37970</v>
       </c>
       <c r="G45" s="13">
         <v>3096</v>
       </c>
       <c r="H45" s="13">
-        <v>2823</v>
+        <v>3179</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J45" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K45" s="13">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="L45" s="13">
-        <v>343</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2874,19 +2874,19 @@
         <v>56</v>
       </c>
       <c r="B46" s="13">
-        <v>9726</v>
+        <v>10254</v>
       </c>
       <c r="C46" s="13">
-        <v>7749</v>
+        <v>8470</v>
       </c>
       <c r="D46" s="14">
-        <v>0.255</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="E46" s="13">
-        <v>9316</v>
+        <v>9791</v>
       </c>
       <c r="F46" s="13">
-        <v>7438</v>
+        <v>8127</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2895,16 +2895,16 @@
         <v>0</v>
       </c>
       <c r="I46" s="13">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J46" s="13">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K46" s="13">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="L46" s="13">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2912,37 +2912,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="10">
-        <v>302059</v>
+        <v>326368</v>
       </c>
       <c r="C47" s="10">
-        <v>298755</v>
+        <v>324466</v>
       </c>
       <c r="D47" s="11">
-        <v>1.0999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E47" s="10">
-        <v>95621</v>
+        <v>102618</v>
       </c>
       <c r="F47" s="10">
-        <v>88920</v>
+        <v>96339</v>
       </c>
       <c r="G47" s="10">
-        <v>149420</v>
+        <v>160915</v>
       </c>
       <c r="H47" s="10">
-        <v>155835</v>
+        <v>168599</v>
       </c>
       <c r="I47" s="10">
-        <v>789</v>
+        <v>861</v>
       </c>
       <c r="J47" s="10">
-        <v>708</v>
+        <v>757</v>
       </c>
       <c r="K47" s="10">
-        <v>56229</v>
+        <v>61974</v>
       </c>
       <c r="L47" s="10">
-        <v>53293</v>
+        <v>58771</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2950,25 +2950,25 @@
         <v>58</v>
       </c>
       <c r="B48" s="13">
-        <v>15785</v>
+        <v>17307</v>
       </c>
       <c r="C48" s="13">
-        <v>13217</v>
+        <v>13939</v>
       </c>
       <c r="D48" s="14">
-        <v>0.19400000000000001</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="E48" s="13">
-        <v>6397</v>
+        <v>7049</v>
       </c>
       <c r="F48" s="13">
-        <v>3825</v>
+        <v>4066</v>
       </c>
       <c r="G48" s="13">
-        <v>9148</v>
+        <v>9993</v>
       </c>
       <c r="H48" s="13">
-        <v>9127</v>
+        <v>9579</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>21</v>
@@ -2977,10 +2977,10 @@
         <v>2</v>
       </c>
       <c r="K48" s="13">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="L48" s="13">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,37 +2988,37 @@
         <v>59</v>
       </c>
       <c r="B49" s="13">
-        <v>56858</v>
+        <v>61601</v>
       </c>
       <c r="C49" s="13">
-        <v>54386</v>
+        <v>60190</v>
       </c>
       <c r="D49" s="14">
-        <v>4.4999999999999998E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E49" s="13">
-        <v>30566</v>
+        <v>32765</v>
       </c>
       <c r="F49" s="13">
-        <v>31143</v>
+        <v>34220</v>
       </c>
       <c r="G49" s="13">
-        <v>4434</v>
+        <v>4782</v>
       </c>
       <c r="H49" s="13">
-        <v>2932</v>
+        <v>3388</v>
       </c>
       <c r="I49" s="13">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J49" s="13">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K49" s="13">
-        <v>21716</v>
+        <v>23899</v>
       </c>
       <c r="L49" s="13">
-        <v>20167</v>
+        <v>22422</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3026,25 +3026,25 @@
         <v>60</v>
       </c>
       <c r="B50" s="13">
-        <v>31294</v>
+        <v>34119</v>
       </c>
       <c r="C50" s="13">
-        <v>28257</v>
+        <v>31084</v>
       </c>
       <c r="D50" s="14">
-        <v>0.107</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E50" s="13">
-        <v>20940</v>
+        <v>22747</v>
       </c>
       <c r="F50" s="13">
-        <v>17959</v>
+        <v>19826</v>
       </c>
       <c r="G50" s="13">
-        <v>10193</v>
+        <v>11196</v>
       </c>
       <c r="H50" s="13">
-        <v>10160</v>
+        <v>11100</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>21</v>
@@ -3053,10 +3053,10 @@
         <v>0.01</v>
       </c>
       <c r="K50" s="13">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L50" s="13">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,37 +3064,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="13">
-        <v>198122</v>
+        <v>213341</v>
       </c>
       <c r="C51" s="13">
-        <v>202895</v>
+        <v>219253</v>
       </c>
       <c r="D51" s="14">
-        <v>-2.4E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>37719</v>
+        <v>40057</v>
       </c>
       <c r="F51" s="13">
-        <v>35993</v>
+        <v>38226</v>
       </c>
       <c r="G51" s="13">
-        <v>125644</v>
+        <v>134944</v>
       </c>
       <c r="H51" s="13">
-        <v>133616</v>
+        <v>144533</v>
       </c>
       <c r="I51" s="13">
-        <v>630</v>
+        <v>688</v>
       </c>
       <c r="J51" s="13">
-        <v>562</v>
+        <v>595</v>
       </c>
       <c r="K51" s="13">
-        <v>34129</v>
+        <v>37652</v>
       </c>
       <c r="L51" s="13">
-        <v>32724</v>
+        <v>35899</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,37 +3102,37 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>87039</v>
+        <v>92668</v>
       </c>
       <c r="C52" s="10">
-        <v>81095</v>
+        <v>88790</v>
       </c>
       <c r="D52" s="11">
-        <v>7.2999999999999995E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E52" s="10">
-        <v>63861</v>
+        <v>68173</v>
       </c>
       <c r="F52" s="10">
-        <v>57817</v>
+        <v>63482</v>
       </c>
       <c r="G52" s="10">
-        <v>21683</v>
+        <v>22850</v>
       </c>
       <c r="H52" s="10">
-        <v>21783</v>
+        <v>23659</v>
       </c>
       <c r="I52" s="10">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="J52" s="10">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="K52" s="10">
-        <v>1186</v>
+        <v>1304</v>
       </c>
       <c r="L52" s="10">
-        <v>1147</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3140,31 +3140,31 @@
         <v>63</v>
       </c>
       <c r="B53" s="13">
-        <v>31336</v>
+        <v>32800</v>
       </c>
       <c r="C53" s="13">
-        <v>28956</v>
+        <v>31312</v>
       </c>
       <c r="D53" s="14">
-        <v>8.2000000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E53" s="13">
-        <v>17628</v>
+        <v>18467</v>
       </c>
       <c r="F53" s="13">
-        <v>15613</v>
+        <v>16980</v>
       </c>
       <c r="G53" s="13">
-        <v>13606</v>
+        <v>14220</v>
       </c>
       <c r="H53" s="13">
-        <v>13231</v>
+        <v>14211</v>
       </c>
       <c r="I53" s="13">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J53" s="13">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K53" s="13">
         <v>0</v>
@@ -3178,25 +3178,25 @@
         <v>64</v>
       </c>
       <c r="B54" s="13">
-        <v>11015</v>
+        <v>11737</v>
       </c>
       <c r="C54" s="13">
-        <v>9229</v>
+        <v>10541</v>
       </c>
       <c r="D54" s="14">
-        <v>0.19400000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="E54" s="13">
-        <v>9365</v>
+        <v>9971</v>
       </c>
       <c r="F54" s="13">
-        <v>7286</v>
+        <v>8435</v>
       </c>
       <c r="G54" s="13">
-        <v>1632</v>
+        <v>1747</v>
       </c>
       <c r="H54" s="13">
-        <v>1924</v>
+        <v>2085</v>
       </c>
       <c r="I54" s="13">
         <v>2</v>
@@ -3208,7 +3208,7 @@
         <v>21</v>
       </c>
       <c r="L54" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3216,37 +3216,37 @@
         <v>65</v>
       </c>
       <c r="B55" s="13">
-        <v>2938</v>
+        <v>3054</v>
       </c>
       <c r="C55" s="13">
-        <v>3074</v>
+        <v>3390</v>
       </c>
       <c r="D55" s="14">
-        <v>-4.3999999999999997E-2</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="E55" s="13">
-        <v>1691</v>
+        <v>1716</v>
       </c>
       <c r="F55" s="13">
-        <v>1772</v>
+        <v>1904</v>
       </c>
       <c r="G55" s="13">
-        <v>1177</v>
+        <v>1261</v>
       </c>
       <c r="H55" s="13">
-        <v>1252</v>
+        <v>1426</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
       </c>
       <c r="J55" s="13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K55" s="13">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L55" s="13">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3254,25 +3254,25 @@
         <v>66</v>
       </c>
       <c r="B56" s="13">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="C56" s="13">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="D56" s="14">
-        <v>0.31</v>
+        <v>0.246</v>
       </c>
       <c r="E56" s="13">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="F56" s="13">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="G56" s="13">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H56" s="13">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3292,37 +3292,37 @@
         <v>67</v>
       </c>
       <c r="B57" s="13">
-        <v>24430</v>
+        <v>26606</v>
       </c>
       <c r="C57" s="13">
-        <v>24259</v>
+        <v>26429</v>
       </c>
       <c r="D57" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E57" s="13">
-        <v>22391</v>
+        <v>24358</v>
       </c>
       <c r="F57" s="13">
-        <v>22123</v>
+        <v>24080</v>
       </c>
       <c r="G57" s="13">
-        <v>1723</v>
+        <v>1905</v>
       </c>
       <c r="H57" s="13">
-        <v>1821</v>
+        <v>2006</v>
       </c>
       <c r="I57" s="13">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J57" s="13">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K57" s="13">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="L57" s="13">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3330,31 +3330,31 @@
         <v>68</v>
       </c>
       <c r="B58" s="13">
-        <v>8644</v>
+        <v>9210</v>
       </c>
       <c r="C58" s="13">
-        <v>7796</v>
+        <v>8498</v>
       </c>
       <c r="D58" s="14">
-        <v>0.109</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E58" s="13">
-        <v>5214</v>
+        <v>5613</v>
       </c>
       <c r="F58" s="13">
-        <v>4355</v>
+        <v>4683</v>
       </c>
       <c r="G58" s="13">
-        <v>3328</v>
+        <v>3486</v>
       </c>
       <c r="H58" s="13">
-        <v>3340</v>
+        <v>3704</v>
       </c>
       <c r="I58" s="13">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J58" s="13">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K58" s="13" t="s">
         <v>21</v>
@@ -3368,37 +3368,37 @@
         <v>69</v>
       </c>
       <c r="B59" s="13">
-        <v>7424</v>
+        <v>7912</v>
       </c>
       <c r="C59" s="13">
-        <v>6718</v>
+        <v>7434</v>
       </c>
       <c r="D59" s="14">
-        <v>0.105</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E59" s="13">
-        <v>6856</v>
+        <v>7292</v>
       </c>
       <c r="F59" s="13">
-        <v>6132</v>
+        <v>6797</v>
       </c>
       <c r="G59" s="13">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="H59" s="13">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I59" s="13">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J59" s="13">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K59" s="13">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="L59" s="13">
-        <v>359</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3406,19 +3406,19 @@
         <v>70</v>
       </c>
       <c r="B60" s="13">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="C60" s="13">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="D60" s="14">
-        <v>7.0999999999999994E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="E60" s="13">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F60" s="13">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>21</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="L60" s="13">
-        <v>475</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3444,37 +3444,37 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>104956</v>
+        <v>114171</v>
       </c>
       <c r="C61" s="10">
-        <v>121052</v>
+        <v>132937</v>
       </c>
       <c r="D61" s="11">
-        <v>-0.13300000000000001</v>
+        <v>-0.14099999999999999</v>
       </c>
       <c r="E61" s="10">
-        <v>39225</v>
+        <v>42671</v>
       </c>
       <c r="F61" s="10">
-        <v>42833</v>
+        <v>47273</v>
       </c>
       <c r="G61" s="10">
-        <v>54989</v>
+        <v>59697</v>
       </c>
       <c r="H61" s="10">
-        <v>67079</v>
+        <v>73356</v>
       </c>
       <c r="I61" s="10">
-        <v>1503</v>
+        <v>1654</v>
       </c>
       <c r="J61" s="10">
-        <v>1616</v>
+        <v>1768</v>
       </c>
       <c r="K61" s="10">
-        <v>9239</v>
+        <v>10148</v>
       </c>
       <c r="L61" s="10">
-        <v>9524</v>
+        <v>10541</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3482,37 +3482,37 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>82049</v>
+        <v>89543</v>
       </c>
       <c r="C62" s="13">
-        <v>97854</v>
+        <v>106684</v>
       </c>
       <c r="D62" s="14">
-        <v>-0.16200000000000001</v>
+        <v>-0.161</v>
       </c>
       <c r="E62" s="13">
-        <v>27538</v>
+        <v>29886</v>
       </c>
       <c r="F62" s="13">
-        <v>31099</v>
+        <v>34022</v>
       </c>
       <c r="G62" s="13">
-        <v>44005</v>
+        <v>48110</v>
       </c>
       <c r="H62" s="13">
-        <v>55753</v>
+        <v>60512</v>
       </c>
       <c r="I62" s="13">
-        <v>1430</v>
+        <v>1575</v>
       </c>
       <c r="J62" s="13">
-        <v>1560</v>
+        <v>1704</v>
       </c>
       <c r="K62" s="13">
-        <v>9075</v>
+        <v>9972</v>
       </c>
       <c r="L62" s="13">
-        <v>9442</v>
+        <v>10445</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3520,37 +3520,37 @@
         <v>73</v>
       </c>
       <c r="B63" s="13">
-        <v>13300</v>
+        <v>14426</v>
       </c>
       <c r="C63" s="13">
-        <v>12853</v>
+        <v>14473</v>
       </c>
       <c r="D63" s="14">
-        <v>3.5000000000000003E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E63" s="13">
-        <v>6002</v>
+        <v>6647</v>
       </c>
       <c r="F63" s="13">
-        <v>5233</v>
+        <v>5888</v>
       </c>
       <c r="G63" s="13">
-        <v>7152</v>
+        <v>7622</v>
       </c>
       <c r="H63" s="13">
-        <v>7540</v>
+        <v>8494</v>
       </c>
       <c r="I63" s="13">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J63" s="13">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K63" s="13">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L63" s="13">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3558,37 +3558,37 @@
         <v>74</v>
       </c>
       <c r="B64" s="13">
-        <v>9607</v>
+        <v>10202</v>
       </c>
       <c r="C64" s="13">
-        <v>10346</v>
+        <v>11780</v>
       </c>
       <c r="D64" s="14">
-        <v>-7.0999999999999994E-2</v>
+        <v>-0.13400000000000001</v>
       </c>
       <c r="E64" s="13">
-        <v>5685</v>
+        <v>6138</v>
       </c>
       <c r="F64" s="13">
-        <v>6501</v>
+        <v>7362</v>
       </c>
       <c r="G64" s="13">
-        <v>3831</v>
+        <v>3964</v>
       </c>
       <c r="H64" s="13">
-        <v>3786</v>
+        <v>4350</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>21</v>
       </c>
       <c r="J64" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K64" s="13">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L64" s="13">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3596,19 +3596,19 @@
         <v>75</v>
       </c>
       <c r="B65" s="10">
-        <v>1976</v>
+        <v>2153</v>
       </c>
       <c r="C65" s="10">
-        <v>2568</v>
+        <v>2816</v>
       </c>
       <c r="D65" s="11">
-        <v>-0.23100000000000001</v>
+        <v>-0.23499999999999999</v>
       </c>
       <c r="E65" s="10">
-        <v>1912</v>
+        <v>2083</v>
       </c>
       <c r="F65" s="10">
-        <v>2510</v>
+        <v>2751</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -3623,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="K65" s="10">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L65" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3634,19 +3634,19 @@
         <v>76</v>
       </c>
       <c r="B66" s="13">
-        <v>1976</v>
+        <v>2153</v>
       </c>
       <c r="C66" s="13">
-        <v>2568</v>
+        <v>2816</v>
       </c>
       <c r="D66" s="14">
-        <v>-0.23100000000000001</v>
+        <v>-0.23499999999999999</v>
       </c>
       <c r="E66" s="13">
-        <v>1912</v>
+        <v>2083</v>
       </c>
       <c r="F66" s="13">
-        <v>2510</v>
+        <v>2751</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="K66" s="13">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L66" s="13">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>1189871</v>
+        <v>1284457</v>
       </c>
       <c r="C68" s="10">
-        <v>1121469</v>
+        <v>1223705</v>
       </c>
       <c r="D68" s="11">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E68" s="10">
-        <v>564679</v>
+        <v>608453</v>
       </c>
       <c r="F68" s="10">
-        <v>517881</v>
+        <v>565471</v>
       </c>
       <c r="G68" s="10">
-        <v>542118</v>
+        <v>584558</v>
       </c>
       <c r="H68" s="10">
-        <v>524621</v>
+        <v>571163</v>
       </c>
       <c r="I68" s="10">
-        <v>6557</v>
+        <v>7148</v>
       </c>
       <c r="J68" s="10">
-        <v>6270</v>
+        <v>6853</v>
       </c>
       <c r="K68" s="10">
-        <v>76516</v>
+        <v>84298</v>
       </c>
       <c r="L68" s="10">
-        <v>72697</v>
+        <v>80218</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
